--- a/docs/skills-and-damage-formula.xlsx
+++ b/docs/skills-and-damage-formula.xlsx
@@ -1,25 +1,91 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45324333-E8C5-4530-B3FF-690B11EFA586}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Vitality</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>HealingPower</t>
+  </si>
+  <si>
+    <t>ConditionPower</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Damage Low</t>
+  </si>
+  <si>
+    <t>Damage High</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Spalte1</t>
+  </si>
+  <si>
+    <t>Spalte2</t>
+  </si>
+  <si>
+    <t>Spalte3</t>
+  </si>
+  <si>
+    <t>Weapon Power</t>
+  </si>
+  <si>
+    <t>Armor Defense</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +119,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +132,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E749F673-8356-42FF-9F58-580A2DCD5B94}" name="Tabelle1" displayName="Tabelle1" ref="Q3:S12" totalsRowShown="0">
+  <autoFilter ref="Q3:S12" xr:uid="{40356537-08EE-4F83-8962-EE68D0671142}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7CEE2495-725C-4C9E-B25C-212C5873BA0B}" name="Spalte1"/>
+    <tableColumn id="2" xr3:uid="{C2F3E258-8059-46A5-A83E-CACCBBF856D9}" name="Spalte2"/>
+    <tableColumn id="3" xr3:uid="{1FE2E2BB-082E-4F5A-BBF3-57471DA4EDD0}" name="Spalte3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +408,147 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q5" t="s">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>10</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <f>R$5*10</f>
+        <v>100</v>
+      </c>
+      <c r="S6">
+        <f>S$5*10</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q7" t="s">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <f t="shared" ref="R7:S10" si="0">R$5*10</f>
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" t="s">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" t="s">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/docs/skills-and-damage-formula.xlsx
+++ b/docs/skills-and-damage-formula.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45324333-E8C5-4530-B3FF-690B11EFA586}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB05B9E-B081-4FC5-A4E0-EEDEE5D6E20E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5016" yWindow="1752" windowWidth="17280" windowHeight="9744" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -26,28 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>Vitality</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Power</t>
-  </si>
-  <si>
-    <t>HealingPower</t>
-  </si>
-  <si>
-    <t>ConditionPower</t>
-  </si>
-  <si>
-    <t>Armor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -64,22 +43,58 @@
     <t>Range</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Spalte1</t>
-  </si>
-  <si>
-    <t>Spalte2</t>
-  </si>
-  <si>
-    <t>Spalte3</t>
-  </si>
-  <si>
-    <t>Weapon Power</t>
-  </si>
-  <si>
-    <t>Armor Defense</t>
+    <t>Shot</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Exploding Arrow</t>
+  </si>
+  <si>
+    <t>Cooldown</t>
+  </si>
+  <si>
+    <t>Precise Arrow</t>
+  </si>
+  <si>
+    <t>Triple Arrow</t>
+  </si>
+  <si>
+    <t>Super Sonic Shot</t>
+  </si>
+  <si>
+    <t>Blow</t>
+  </si>
+  <si>
+    <t>Greatsword</t>
+  </si>
+  <si>
+    <t>Cutting Leap</t>
+  </si>
+  <si>
+    <t>Powerful Strike</t>
+  </si>
+  <si>
+    <t>Vortex</t>
+  </si>
+  <si>
+    <t>Eviscerating Cut</t>
+  </si>
+  <si>
+    <t>Slice</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Shadowstep</t>
+  </si>
+  <si>
+    <t>Backstab</t>
+  </si>
+  <si>
+    <t>Jagged Blade</t>
   </si>
 </sst>
 </file>
@@ -132,18 +147,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E749F673-8356-42FF-9F58-580A2DCD5B94}" name="Tabelle1" displayName="Tabelle1" ref="Q3:S12" totalsRowShown="0">
-  <autoFilter ref="Q3:S12" xr:uid="{40356537-08EE-4F83-8962-EE68D0671142}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7CEE2495-725C-4C9E-B25C-212C5873BA0B}" name="Spalte1"/>
-    <tableColumn id="2" xr3:uid="{C2F3E258-8059-46A5-A83E-CACCBBF856D9}" name="Spalte2"/>
-    <tableColumn id="3" xr3:uid="{1FE2E2BB-082E-4F5A-BBF3-57471DA4EDD0}" name="Spalte3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S12"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,132 +426,307 @@
     <col min="18" max="19" width="9.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>27</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3">
+        <v>14</v>
+      </c>
+      <c r="E3">
+        <v>27</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D4">
+        <v>12</v>
+      </c>
+      <c r="E4">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>27</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>28</v>
+      </c>
+      <c r="D6">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>27</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>1.9</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q3" t="s">
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>1.9</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="R3" t="s">
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>1.9</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11">
+        <v>1.9</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>0.8</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
         <v>14</v>
       </c>
-      <c r="S3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="R4" t="s">
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>0.8</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="S4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q5" t="s">
-        <v>2</v>
-      </c>
-      <c r="R5">
-        <v>10</v>
-      </c>
-      <c r="S5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q6" t="s">
-        <v>3</v>
-      </c>
-      <c r="R6">
-        <f>R$5*10</f>
-        <v>100</v>
-      </c>
-      <c r="S6">
-        <f>S$5*10</f>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q7" t="s">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <f t="shared" ref="R7:S10" si="0">R$5*10</f>
-        <v>100</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q8" t="s">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q9" t="s">
+      <c r="E15">
+        <v>0.8</v>
+      </c>
+      <c r="F15">
         <v>1</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="S9">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q10" t="s">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="S10">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="Q12" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>